--- a/周报/第八周及以后的周报/陈曦冉_周工作总结excel（工作周报）.xlsx
+++ b/周报/第八周及以后的周报/陈曦冉_周工作总结excel（工作周报）.xlsx
@@ -4,24 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="17321" windowHeight="8262" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第8周工作周报" sheetId="7" r:id="rId1"/>
-    <sheet name="第y周工作周报" sheetId="9" r:id="rId2"/>
+    <sheet name="第9周工作周报" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第8周工作周报!$A$1:$O$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">第y周工作周报!$A$1:$O$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">第9周工作周报!$A$1:$O$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">工作周报    </t>
     </r>
     <r>
@@ -144,13 +151,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color indexed="9"/>
-        <rFont val="幼圆"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">工作周报    </t>
     </r>
     <r>
@@ -159,24 +159,35 @@
         <rFont val="幼圆"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">日期：          </t>
+      <t xml:space="preserve">日期：    4.23-4.27      </t>
     </r>
   </si>
   <si>
     <t>姓名：                                                                                       组长：</t>
   </si>
   <si>
-    <t>10.2O</t>
+    <t>开始一部分模型训练代码编写</t>
+  </si>
+  <si>
+    <t>需求分析PPT编写</t>
+  </si>
+  <si>
+    <t>AI猜图的详细需求分析</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>设计部分PPT的完成</t>
+  </si>
+  <si>
+    <t>学习神经网络训练部分的背景知识</t>
+  </si>
+  <si>
+    <t>代码编写</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="幼圆"/>
-        <charset val="134"/>
-      </rPr>
       <t>本周工作总结</t>
     </r>
     <r>
@@ -185,7 +196,7 @@
         <rFont val="幼圆"/>
         <charset val="134"/>
       </rPr>
-      <t>：</t>
+      <t>：本周完成了详细设计的编写，制作了相应部分的PPT，顺利完成</t>
     </r>
   </si>
 </sst>
@@ -195,8 +206,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -212,6 +223,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
       <name val="幼圆"/>
       <charset val="134"/>
     </font>
@@ -275,37 +293,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,15 +301,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,40 +349,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -387,21 +387,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -427,15 +426,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -443,6 +436,24 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -479,37 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +508,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +556,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,31 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,25 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,15 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -821,6 +823,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -831,6 +848,15 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,30 +896,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="62"/>
       </top>
@@ -902,373 +904,373 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1661,11 +1663,11 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="2" customWidth="1"/>
@@ -1689,838 +1691,838 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:18">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
       <c r="Q1" s="72"/>
       <c r="R1" s="72"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:18">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
       <c r="Q2" s="73"/>
       <c r="R2" s="73"/>
     </row>
     <row r="3" ht="23.25" customHeight="1" spans="1:18">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:16">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="47"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="47"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
         <v>2</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="47"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="47"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="47"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="45"/>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:16">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17" t="s">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="45"/>
     </row>
     <row r="10" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
         <v>4.11</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="33">
         <v>30</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="27">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="47"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="47"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
         <v>4.12</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <v>100</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="27">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="47"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="45"/>
     </row>
     <row r="13" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="47"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24">
         <v>4.13</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="27">
+      <c r="D14" s="25"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="47"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="45"/>
     </row>
     <row r="15" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="47"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="45"/>
     </row>
     <row r="16" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24">
         <v>4.14</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="27">
+      <c r="D16" s="25"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="47"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="45"/>
     </row>
     <row r="17" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="47"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="45"/>
     </row>
     <row r="18" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24">
         <v>4.15</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="27">
+      <c r="D18" s="25"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="47"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="45"/>
     </row>
     <row r="19" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="47"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
         <v>4.16</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="33">
         <v>100</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="27">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="47"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="47"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="45"/>
     </row>
     <row r="22" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24">
         <v>4.17</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="27">
+      <c r="D22" s="25"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="47"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="23" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="47"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="45"/>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="47"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="45"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="65"/>
-      <c r="P25" s="47"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="45"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36">
         <v>10.24</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="66">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="68">
         <v>25</v>
       </c>
-      <c r="O26" s="64"/>
-      <c r="P26" s="47"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="45"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39">
         <v>10.25</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="67">
         <v>50</v>
       </c>
-      <c r="O27" s="68"/>
-      <c r="P27" s="47"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36">
         <v>10.26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="76">
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="64">
         <v>0.6</v>
       </c>
-      <c r="O28" s="64"/>
-      <c r="P28" s="47"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="45"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41">
+      <c r="B29" s="38"/>
+      <c r="C29" s="39">
         <v>10.27</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="67">
         <v>75</v>
       </c>
-      <c r="O29" s="68"/>
-      <c r="P29" s="47"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="45"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36">
         <v>10.28</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="66">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="68">
         <v>100</v>
       </c>
-      <c r="O30" s="64"/>
-      <c r="P30" s="47"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="45"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41">
+      <c r="B31" s="38"/>
+      <c r="C31" s="39">
         <v>10.29</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="67"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="47"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="45"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="47"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="45"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="69"/>
-      <c r="P33" s="47"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
       <c r="O34" s="70"/>
-      <c r="P34" s="47"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:16">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
       <c r="O35" s="71"/>
-      <c r="P35" s="47"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
+      <c r="P35" s="45"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:15">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="47"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="47"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="45"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="47"/>
+      <c r="D40" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -2630,11 +2632,11 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="2" customWidth="1"/>
@@ -2661,793 +2663,837 @@
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
       <c r="Q1" s="72"/>
       <c r="R1" s="72"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:18">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
       <c r="Q2" s="73"/>
       <c r="R2" s="73"/>
     </row>
     <row r="3" ht="23.25" customHeight="1" spans="1:18">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:16">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="47"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9">
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="47"/>
+      <c r="H5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12">
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
         <v>2</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="47"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="47"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="47"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="45"/>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:16">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17" t="s">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="45"/>
     </row>
     <row r="10" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23">
-        <v>10.17</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
+        <v>4.18</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="47"/>
+      <c r="H10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="47"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23">
-        <v>10.18</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="27">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
+        <v>4.19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="47"/>
+      <c r="H12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="45"/>
     </row>
     <row r="13" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="47"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23">
-        <v>10.19</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="27">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="47"/>
+      <c r="H14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="45"/>
     </row>
     <row r="15" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="47"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="45"/>
     </row>
     <row r="16" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="27">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24">
+        <v>4.21</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="47"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="45"/>
     </row>
     <row r="17" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="47"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="45"/>
     </row>
     <row r="18" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23">
-        <v>10.21</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="27">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24">
+        <v>4.22</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="47"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="45"/>
     </row>
     <row r="19" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="47"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23">
-        <v>10.22</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="27">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
+        <v>4.23</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="47"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="47"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="45"/>
     </row>
     <row r="22" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23">
-        <v>10.23</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="27">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24">
+        <v>4.24</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="47"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="23" ht="12.95" customHeight="1" spans="1:16">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="47"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="45"/>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="47"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="45"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="65"/>
-      <c r="P25" s="47"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="45"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36">
         <v>10.24</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="47"/>
+      <c r="D26" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="62"/>
+      <c r="P26" s="45"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39">
         <v>10.25</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="47"/>
+      <c r="D27" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="66"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36">
         <v>10.26</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="47"/>
+      <c r="D28" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="62"/>
+      <c r="P28" s="45"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41">
+      <c r="B29" s="38"/>
+      <c r="C29" s="39">
         <v>10.27</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="47"/>
+      <c r="D29" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="66"/>
+      <c r="P29" s="45"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36">
         <v>10.28</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="47"/>
+      <c r="D30" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="62"/>
+      <c r="P30" s="45"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41">
+      <c r="B31" s="38"/>
+      <c r="C31" s="39">
         <v>10.29</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="67"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="47"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="45"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="47"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="45"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="69"/>
-      <c r="P33" s="47"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
+      <c r="A34" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
       <c r="O34" s="70"/>
-      <c r="P34" s="47"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:16">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
       <c r="O35" s="71"/>
-      <c r="P35" s="47"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
+      <c r="P35" s="45"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:15">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="47"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="47"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="45"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="47"/>
+      <c r="D40" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="94">

--- a/周报/第八周及以后的周报/陈曦冉_周工作总结excel（工作周报）.xlsx
+++ b/周报/第八周及以后的周报/陈曦冉_周工作总结excel（工作周报）.xlsx
@@ -4,11 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17321" windowHeight="8262" activeTab="1"/>
+    <workbookView windowWidth="17321" windowHeight="8262" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="第8周工作周报" sheetId="7" r:id="rId1"/>
     <sheet name="第9周工作周报" sheetId="9" r:id="rId2"/>
+    <sheet name="第10周工作周报" sheetId="10" r:id="rId3"/>
+    <sheet name="第11周工作周报" sheetId="11" r:id="rId4"/>
+    <sheet name="第12周工作周报" sheetId="12" r:id="rId5"/>
+    <sheet name="第13周工作周报" sheetId="13" r:id="rId6"/>
+    <sheet name="第14周工作周报" sheetId="14" r:id="rId7"/>
+    <sheet name="第15周工作周报" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第8周工作周报!$A$1:$O$35</definedName>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="78">
   <si>
     <r>
       <rPr>
@@ -101,6 +107,12 @@
     <t>星期一</t>
   </si>
   <si>
+    <t>学习RNN神经网络训练部分知识</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>星期二</t>
   </si>
   <si>
@@ -131,13 +143,17 @@
     <t>编写详细计划说明</t>
   </si>
   <si>
-    <t>10.3O</t>
-  </si>
-  <si>
     <t>额外工作说明：</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
       <t>本周工作总结</t>
     </r>
     <r>
@@ -159,11 +175,11 @@
         <rFont val="幼圆"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">日期：    4.23-4.27      </t>
+      <t xml:space="preserve">日期：    4.18-4.24    </t>
     </r>
   </si>
   <si>
-    <t>姓名：                                                                                       组长：</t>
+    <t>姓名：  陈曦冉                                                                                     组长：张隽涵</t>
   </si>
   <si>
     <t>开始一部分模型训练代码编写</t>
@@ -175,10 +191,10 @@
     <t>AI猜图的详细需求分析</t>
   </si>
   <si>
-    <t>无</t>
+    <t>设计部分PPT的完成</t>
   </si>
   <si>
-    <t>设计部分PPT的完成</t>
+    <t>学习RNN神经网络相关知识</t>
   </si>
   <si>
     <t>学习神经网络训练部分的背景知识</t>
@@ -199,16 +215,236 @@
       <t>：本周完成了详细设计的编写，制作了相应部分的PPT，顺利完成</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：    4.25-5.1     </t>
+    </r>
+  </si>
+  <si>
+    <t>姓名：陈曦冉                                                                                      组长：张隽涵</t>
+  </si>
+  <si>
+    <t>学习神经网络训练背景知识</t>
+  </si>
+  <si>
+    <t>下载谷歌提供的开源草图数据集</t>
+  </si>
+  <si>
+    <t>进行数据格式转换方面的代码编写</t>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：本周完成了开源数据集的下载，同时编写了一部分数据格式转换方面的代码，较为顺利。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：    5.2-5.8    </t>
+    </r>
+  </si>
+  <si>
+    <t>学习训练草图模型的教程</t>
+  </si>
+  <si>
+    <t>学习谷歌训练识别草图教程</t>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：本周放五一假，仅一天工作日用于编写代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：    5.9-5.15  </t>
+    </r>
+  </si>
+  <si>
+    <t>进行模型训练方面的代码编写</t>
+  </si>
+  <si>
+    <t>服务器部署</t>
+  </si>
+  <si>
+    <t>将模型和前端进行连接</t>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：本周完成数据格式转换方面的代码编写、基本学习了谷歌训练识别草图的教程，同时完成了部分模型训练方面的代码编写</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期：    5.16-5.22</t>
+    </r>
+  </si>
+  <si>
+    <t>和前端连接</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>和前端进行连接</t>
+  </si>
+  <si>
+    <t>完成部分软件测试</t>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：本周完成了模型训练方面的代码编写以及服务器部署</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期：    5.23-5.29</t>
+    </r>
+  </si>
+  <si>
+    <t>软件测试</t>
+  </si>
+  <si>
+    <t>制作PPT，汇报展示</t>
+  </si>
+  <si>
+    <t>完成文档编写</t>
+  </si>
+  <si>
+    <t>制作PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目汇报 </t>
+  </si>
+  <si>
+    <t>文档编写</t>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：本周完成了和前端的连接以及软件测试</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期：    5.30-6.5</t>
+    </r>
+  </si>
+  <si>
+    <t>项目汇报</t>
+  </si>
+  <si>
+    <t>制作PPT，准备汇报</t>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：本周完成了项目汇报以及文档编写</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -217,12 +453,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="幼圆"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="幼圆"/>
       <charset val="134"/>
     </font>
@@ -325,15 +561,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -344,45 +594,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -400,7 +614,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -419,14 +674,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -435,25 +682,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -490,7 +726,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +786,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,55 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,6 +1043,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -818,21 +1078,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,17 +1106,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,182 +1129,177 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="63"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
@@ -1130,24 +1366,27 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,6 +1420,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,7 +1435,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1228,16 +1470,16 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1271,6 +1513,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1664,30 +1912,30 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:O35"/>
+      <selection activeCell="H20" sqref="H20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:18">
@@ -1707,12 +1955,12 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1729,10 +1977,10 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
     </row>
     <row r="3" ht="23.25" customHeight="1" spans="1:18">
       <c r="A3" s="6" t="s">
@@ -1753,10 +2001,10 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:16">
       <c r="A4" s="8" t="s">
@@ -1781,8 +2029,8 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="10">
@@ -1807,8 +2055,8 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="45"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="13">
@@ -1833,8 +2081,8 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="45"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10">
@@ -1857,8 +2105,8 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="45"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:16">
       <c r="A8" s="16" t="s">
@@ -1879,8 +2127,8 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="45"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:16">
       <c r="A9" s="18" t="s">
@@ -1911,44 +2159,46 @@
       <c r="N9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="45"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" ht="12.95" customHeight="1" spans="1:16">
       <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="24">
+      <c r="C10" s="30">
         <v>4.11</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="33">
+        <v>21</v>
+      </c>
+      <c r="E10" s="34">
         <v>30</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28">
         <v>1</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="45"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" ht="12.95" customHeight="1" spans="1:16">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -1957,44 +2207,46 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="45"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" ht="12.95" customHeight="1" spans="1:16">
       <c r="A12" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="23"/>
-      <c r="C12" s="24">
+      <c r="C12" s="30">
         <v>4.12</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="34">
         <v>100</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28">
         <v>2</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="45"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" ht="12.95" customHeight="1" spans="1:16">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -2003,19 +2255,19 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" ht="12.95" customHeight="1" spans="1:16">
       <c r="A14" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="23"/>
-      <c r="C14" s="24">
+      <c r="C14" s="30">
         <v>4.13</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="27"/>
       <c r="G14" s="28">
         <v>3</v>
@@ -2027,16 +2279,16 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="45"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" ht="12.95" customHeight="1" spans="1:16">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -2045,19 +2297,19 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="45"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" ht="12.95" customHeight="1" spans="1:16">
       <c r="A16" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="23"/>
-      <c r="C16" s="24">
+      <c r="C16" s="30">
         <v>4.14</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="27"/>
       <c r="G16" s="28">
         <v>4</v>
@@ -2069,16 +2321,16 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="45"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" ht="12.95" customHeight="1" spans="1:16">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
@@ -2087,142 +2339,144 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="45"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
     </row>
     <row r="18" ht="12.95" customHeight="1" spans="1:16">
       <c r="A18" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="24">
+      <c r="C18" s="30">
         <v>4.15</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="27"/>
       <c r="G18" s="28">
         <v>5</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="59"/>
+      <c r="M18" s="60"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="45"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
     </row>
     <row r="19" ht="12.95" customHeight="1" spans="1:16">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="61"/>
-      <c r="L19" s="34"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="61"/>
-      <c r="N19" s="34"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="61"/>
-      <c r="P19" s="45"/>
+      <c r="P19" s="47"/>
     </row>
     <row r="20" ht="12.95" customHeight="1" spans="1:16">
       <c r="A20" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="24">
+      <c r="C20" s="30">
         <v>4.16</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="33">
+        <v>28</v>
+      </c>
+      <c r="E20" s="34">
         <v>100</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="28">
         <v>6</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="H20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="59"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="45"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:16">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="61"/>
-      <c r="L21" s="34"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="61"/>
-      <c r="N21" s="34"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="61"/>
-      <c r="P21" s="45"/>
+      <c r="P21" s="47"/>
     </row>
     <row r="22" ht="12.95" customHeight="1" spans="1:16">
       <c r="A22" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="23"/>
-      <c r="C22" s="24">
+      <c r="C22" s="30">
         <v>4.17</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="27"/>
       <c r="G22" s="28">
         <v>7</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="59"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="45"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" ht="12.95" customHeight="1" spans="1:16">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="61"/>
-      <c r="L23" s="34"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="61"/>
-      <c r="N23" s="34"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="61"/>
-      <c r="P23" s="45"/>
+      <c r="P23" s="47"/>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:16">
       <c r="A24" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2237,8 +2491,8 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:16">
       <c r="A25" s="18" t="s">
@@ -2259,270 +2513,270 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>4.18</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="70">
+        <v>25</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>4.19</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="69">
+        <v>50</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="42">
+        <v>4.2</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
+        <v>4.21</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="69">
+        <v>75</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
+        <v>4.22</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="70">
+        <v>100</v>
+      </c>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40">
+        <v>4.23</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="63"/>
-      <c r="P25" s="45"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36">
-        <v>10.24</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="68">
-        <v>25</v>
-      </c>
-      <c r="O26" s="62"/>
-      <c r="P26" s="45"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39">
-        <v>10.25</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="67">
-        <v>50</v>
-      </c>
-      <c r="O27" s="66"/>
-      <c r="P27" s="45"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36">
-        <v>10.26</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="64">
-        <v>0.6</v>
-      </c>
-      <c r="O28" s="62"/>
-      <c r="P28" s="45"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39">
-        <v>10.27</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="67">
-        <v>75</v>
-      </c>
-      <c r="O29" s="66"/>
-      <c r="P29" s="45"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36">
-        <v>10.28</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="68">
-        <v>100</v>
-      </c>
-      <c r="O30" s="62"/>
-      <c r="P30" s="45"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39">
-        <v>10.29</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="45"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>4.24</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="45"/>
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="45"/>
+      <c r="A34" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:16">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
     </row>
     <row r="36" customHeight="1" spans="1:15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="45"/>
+      <c r="D38" s="47"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="45"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="45"/>
+      <c r="D40" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -2632,36 +2886,36 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2676,14 +2930,14 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2698,10 +2952,10 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
     </row>
     <row r="3" ht="23.25" customHeight="1" spans="1:18">
       <c r="A3" s="6" t="s">
@@ -2722,10 +2976,10 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:16">
       <c r="A4" s="8" t="s">
@@ -2750,8 +3004,8 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="10">
@@ -2768,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -2776,15 +3030,15 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="45"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -2800,8 +3054,8 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="45"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10">
@@ -2822,8 +3076,8 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="45"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:16">
       <c r="A8" s="16" t="s">
@@ -2844,8 +3098,8 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="45"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:16">
       <c r="A9" s="18" t="s">
@@ -2876,19 +3130,19 @@
       <c r="N9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="45"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" ht="12.95" customHeight="1" spans="1:16">
       <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="24">
+      <c r="C10" s="30">
         <v>4.18</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="26">
         <v>0.5</v>
@@ -2898,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -2906,16 +3160,16 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="45"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" ht="12.95" customHeight="1" spans="1:16">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -2924,19 +3178,19 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="45"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" ht="12.95" customHeight="1" spans="1:16">
       <c r="A12" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="23"/>
-      <c r="C12" s="24">
+      <c r="C12" s="30">
         <v>4.19</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -2946,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -2954,16 +3208,16 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="45"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" ht="12.95" customHeight="1" spans="1:16">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -2972,12 +3226,12 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" ht="12.95" customHeight="1" spans="1:16">
       <c r="A14" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24">
@@ -2994,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -3002,16 +3256,16 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="45"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" ht="12.95" customHeight="1" spans="1:16">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -3020,40 +3274,46 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="45"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" ht="12.95" customHeight="1" spans="1:16">
       <c r="A16" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="23"/>
-      <c r="C16" s="24">
+      <c r="C16" s="30">
         <v>4.21</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.6</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="28">
         <v>4</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="45"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" ht="12.95" customHeight="1" spans="1:16">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
@@ -3062,138 +3322,138 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="45"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
     </row>
     <row r="18" ht="12.95" customHeight="1" spans="1:16">
       <c r="A18" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="24">
+      <c r="C18" s="30">
         <v>4.22</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="27"/>
       <c r="G18" s="28">
         <v>5</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="59"/>
+      <c r="M18" s="60"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="45"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
     </row>
     <row r="19" ht="12.95" customHeight="1" spans="1:16">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="61"/>
-      <c r="L19" s="34"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="61"/>
-      <c r="N19" s="34"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="61"/>
-      <c r="P19" s="45"/>
+      <c r="P19" s="47"/>
     </row>
     <row r="20" ht="12.95" customHeight="1" spans="1:16">
       <c r="A20" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="24">
+      <c r="C20" s="30">
         <v>4.23</v>
       </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28">
         <v>6</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="59"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="45"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:16">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="61"/>
-      <c r="L21" s="34"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="61"/>
-      <c r="N21" s="34"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="61"/>
-      <c r="P21" s="45"/>
+      <c r="P21" s="47"/>
     </row>
     <row r="22" ht="12.95" customHeight="1" spans="1:16">
       <c r="A22" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="23"/>
-      <c r="C22" s="24">
+      <c r="C22" s="30">
         <v>4.24</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="27"/>
       <c r="G22" s="28">
         <v>7</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="59"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="45"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" ht="12.95" customHeight="1" spans="1:16">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="61"/>
-      <c r="L23" s="34"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="61"/>
-      <c r="N23" s="34"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="61"/>
-      <c r="P23" s="45"/>
+      <c r="P23" s="47"/>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:16">
       <c r="A24" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -3208,8 +3468,8 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:16">
       <c r="A25" s="18" t="s">
@@ -3230,270 +3490,270 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>4.27</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="76">
+        <v>4.3</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="63"/>
-      <c r="P25" s="45"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36">
-        <v>10.24</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="O26" s="62"/>
-      <c r="P26" s="45"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39">
-        <v>10.25</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="O27" s="66"/>
-      <c r="P27" s="45"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36">
-        <v>10.26</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="O28" s="62"/>
-      <c r="P28" s="45"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39">
-        <v>10.27</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="O29" s="66"/>
-      <c r="P29" s="45"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36">
-        <v>10.28</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="O30" s="62"/>
-      <c r="P30" s="45"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39">
-        <v>10.29</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="45"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>5.1</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="45"/>
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="45"/>
+      <c r="A34" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:16">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
     </row>
     <row r="36" customHeight="1" spans="1:15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="45"/>
+      <c r="D38" s="47"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="45"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="45"/>
+      <c r="D40" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -3596,4 +3856,5826 @@
   <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:18">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="30">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30">
+        <v>4.27</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="30">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="30">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="30">
+        <v>5.1</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
+        <v>5.6</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40">
+        <v>5.7</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:16">
+      <c r="A32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>5.8</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:16">
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:16">
+      <c r="A34" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:16">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:4">
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:5">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="4:4">
+      <c r="D40" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:18">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30">
+        <v>5.2</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="30">
+        <v>5.3</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30">
+        <v>5.4</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="30">
+        <v>5.6</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="30">
+        <v>5.7</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="30">
+        <v>5.8</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>5.9</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="76">
+        <v>5.1</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.11</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="76">
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="67">
+        <v>0.15</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="76">
+        <v>5.14</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:16">
+      <c r="A32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>5.15</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:16">
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:16">
+      <c r="A34" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:16">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:4">
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:5">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="4:4">
+      <c r="D40" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:18">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30">
+        <v>5.9</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
+        <v>5.1</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30">
+        <v>5.11</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="30">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
+        <v>5.14</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="30">
+        <v>5.15</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="76">
+        <v>5.17</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="76">
+        <v>5.19</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="67">
+        <v>0.15</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="42">
+        <v>5.2</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="76">
+        <v>5.21</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:16">
+      <c r="A32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>5.22</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:16">
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:16">
+      <c r="A34" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:16">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:4">
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:5">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="4:4">
+      <c r="D40" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="H18:K19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:18">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30">
+        <v>5.16</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
+        <v>5.17</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30">
+        <v>5.18</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24">
+        <v>5.19</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
+        <v>5.21</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="30">
+        <v>5.22</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>5.23</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="76">
+        <v>5.24</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.25</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66">
+        <v>1</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="76">
+        <v>5.26</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
+        <v>5.27</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="66">
+        <v>1</v>
+      </c>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="76">
+        <v>5.28</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:16">
+      <c r="A32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>5.29</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:16">
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:16">
+      <c r="A34" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:16">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:4">
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:5">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="4:4">
+      <c r="D40" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:18">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30">
+        <v>5.23</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
+        <v>5.24</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30">
+        <v>5.25</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24">
+        <v>5.26</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="30">
+        <v>5.27</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24">
+        <v>5.28</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="30">
+        <v>5.29</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>5.23</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="76">
+        <v>5.24</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="67">
+        <v>1</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.25</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66">
+        <v>1</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="76">
+        <v>5.26</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
+        <v>5.27</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="66">
+        <v>1</v>
+      </c>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="76">
+        <v>5.28</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:16">
+      <c r="A32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>5.29</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:16">
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:16">
+      <c r="A34" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:16">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:4">
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:5">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="4:4">
+      <c r="D40" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="H18:K19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:18">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
+        <v>5.3</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24">
+        <v>5.31</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30">
+        <v>6.1</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="30">
+        <v>6.2</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="30">
+        <v>6.3</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="30">
+        <v>6.4</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="30">
+        <v>6.5</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:16">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>6.6</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>6.8</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
+      <c r="A29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
+        <v>6.9</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
+      <c r="A30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="42">
+        <v>6.1</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:16">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40">
+        <v>6.12</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:16">
+      <c r="A32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
+        <v>6.13</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:16">
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:16">
+      <c r="A34" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="47"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:16">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="47"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="4:4">
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="3:5">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="4:4">
+      <c r="D40" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>